--- a/DOC/DA.10_KH_DungCamQuang.xlsx
+++ b/DOC/DA.10_KH_DungCamQuang.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NoName\CNTT2\CNTT2\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bt\nam6\DoAn\CNTT2\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF6197-377F-4614-B3D2-B9708FDE4E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>TRƯỜNG ĐẠI HỌC TÔN ĐỨC THẮNG
 KHOA CÔNG NGHỆ THÔNG TIN</t>
@@ -228,12 +227,15 @@
   <si>
     <t xml:space="preserve">Tìm hiểu mô hình BERT và PhoBERT
 </t>
+  </si>
+  <si>
+    <t>Khong co meet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,7 +600,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F770BE5-6DAF-ADA2-947B-0538FB5B7AE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F770BE5-6DAF-ADA2-947B-0538FB5B7AE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -653,7 +655,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812DFE3E-D21E-F14E-03E0-61BC3B0FFD3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{812DFE3E-D21E-F14E-03E0-61BC3B0FFD3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -944,11 +946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1260,9 @@
       <c r="G18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1589,7 +1593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D45310-0B63-4218-9629-B96A15EC8FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DOC/DA.10_KH_DungCamQuang.xlsx
+++ b/DOC/DA.10_KH_DungCamQuang.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bt\nam6\DoAn\CNTT2\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NoName\CNTT2\CNTT2\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86EA4A8-5FE3-4C5B-8208-21B73A7967F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>TRƯỜNG ĐẠI HỌC TÔN ĐỨC THẮNG
 KHOA CÔNG NGHỆ THÔNG TIN</t>
@@ -230,12 +223,24 @@
   </si>
   <si>
     <t>Khong co meet</t>
+  </si>
+  <si>
+    <t>ko load trong so model</t>
+  </si>
+  <si>
+    <t>multi-head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attention </t>
+  </si>
+  <si>
+    <t>mask</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,7 +605,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F770BE5-6DAF-ADA2-947B-0538FB5B7AE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F770BE5-6DAF-ADA2-947B-0538FB5B7AE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,7 +660,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{812DFE3E-D21E-F14E-03E0-61BC3B0FFD3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812DFE3E-D21E-F14E-03E0-61BC3B0FFD3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,11 +951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1268,9 @@
       <c r="H18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
@@ -1287,7 +1294,9 @@
       <c r="G19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -1311,7 +1320,9 @@
       <c r="G20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
@@ -1331,7 +1342,9 @@
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
@@ -1593,7 +1606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
